--- a/lightreborn/backend/src/main/resources/data/promotion/xlsx/wrong_promotion_status_full_sample.xlsx
+++ b/lightreborn/backend/src/main/resources/data/promotion/xlsx/wrong_promotion_status_full_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\workspace\S12P31S309\lightreborn\backend\src\main\resources\data\promotion\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>주소</t>
   </si>
@@ -30,9 +30,6 @@
     <t>상태 변경 시각</t>
   </si>
   <si>
-    <t>홍보물 유형</t>
-  </si>
-  <si>
     <t>행정동 코드</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>경상남도 양산시 하북면로 82</t>
   </si>
   <si>
-    <t>현수막</t>
-  </si>
-  <si>
     <t>카페</t>
   </si>
   <si>
@@ -130,6 +124,122 @@
   </si>
   <si>
     <t>하북면</t>
+  </si>
+  <si>
+    <t>홍보물 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보물 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년을 위한 상담 지원 프로그램 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이린PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 대상 취업 연계 서비스 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포즈커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신건강 전문상담소 무료 이용 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸피PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인 가구 청년을 위한 지역 커뮤니티 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔고립청년 복귀 지원금 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리치료 프로그램 참여자 모집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이편이점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 대상 자립 생활 교육과정 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 긴급지원 핫라인 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투썸플레이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 복지센터 신규 오픈 소식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브런치101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년 위한 거리 캠페인 일정 공지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온누리약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 대상 자립 생활 교육과정 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 대상 취업 연계 서비스 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년을 위한 상담 지원 프로그램 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +267,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF032F62"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -198,12 +316,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -508,15 +627,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,18 +650,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -553,12 +682,18 @@
         <v>48330250</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -573,12 +708,18 @@
         <v>48330253</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -587,18 +728,24 @@
         <v>45778.583333333343</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>48330256</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -607,18 +754,24 @@
         <v>45778.458333333343</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>48330259</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -627,18 +780,24 @@
         <v>45778.375</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>48330262</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -647,18 +806,24 @@
         <v>45780.541666666657</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>48330265</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -667,18 +832,24 @@
         <v>45778.666666666657</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>48330268</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -687,18 +858,24 @@
         <v>45780.375</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>48330271</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -707,18 +884,24 @@
         <v>45778.75</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>48330110</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -727,18 +910,24 @@
         <v>45779.416666666657</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>48330120</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -747,18 +936,24 @@
         <v>45778.625</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>48330130</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -767,18 +962,24 @@
         <v>45779.458333333343</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>48330140</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -787,13 +988,19 @@
         <v>45779.625</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>48330150</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
